--- a/biology/Médecine/Fistule_bronchopleurale/Fistule_bronchopleurale.xlsx
+++ b/biology/Médecine/Fistule_bronchopleurale/Fistule_bronchopleurale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fistule bronchopleurale (ou fistule bronchique) est une communication anormale entre l'arbre bronchique et la plèvre. Il s'agit le plus souvent d'une complication d'une intervention de chirurgie thoracique (lobectomie pulmonaire ou surtout pneumonectomie). Une fistule peut être de diagnostic fruste au début, puis se traduit par un empyème auquel est souvent associée une pneumopathie.
 </t>
